--- a/DataFiles/name.xlsx
+++ b/DataFiles/name.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>정보처리기사 2016년 2회</t>
   </si>
@@ -58,26 +57,6 @@
   <si>
     <t>정보처리기사 2017년 1회</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보처리기사 2011년 1회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보처리기사 2011년 2회</t>
-  </si>
-  <si>
-    <t>정보처리기사 2011년 3회</t>
-  </si>
-  <si>
-    <t>정보처리기사 2012년 3회</t>
-  </si>
-  <si>
-    <t>정보처리기사 2012년 1회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보처리기사 2012년 2회</t>
   </si>
   <si>
     <t>정보처리기사 2013년 1회</t>
@@ -474,11 +453,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,14 +481,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>40622</v>
+        <v>41343</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -520,7 +499,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>40706</v>
+        <v>41427</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -531,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>40776</v>
+        <v>41504</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -539,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>40972</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -550,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>41049</v>
+        <v>41784</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -561,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>41147</v>
+        <v>41868</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -572,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>41343</v>
+        <v>42071</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -583,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>41427</v>
+        <v>42155</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -594,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>41504</v>
+        <v>42232</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -605,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>41700</v>
+        <v>42435</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -616,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>41784</v>
+        <v>42498</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -627,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>41868</v>
+        <v>42603</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -638,95 +617,44 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>42071</v>
+        <v>42799</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>42155</v>
-      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
-        <v>42232</v>
-      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>42435</v>
-      </c>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42498</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42603</v>
-      </c>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42799</v>
-      </c>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
